--- a/published-data/fonds-solidarite/fds-2022-06-10/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-10/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -10855,13 +10855,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>29940</v>
+        <v>29941</v>
       </c>
       <c r="D205" t="n">
         <v>5716</v>
       </c>
       <c r="E205" t="n">
-        <v>156325110</v>
+        <v>156347147</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -12232,13 +12232,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>17579</v>
+        <v>17580</v>
       </c>
       <c r="D232" t="n">
         <v>3904</v>
       </c>
       <c r="E232" t="n">
-        <v>34539253</v>
+        <v>34543636</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -15547,13 +15547,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>12891</v>
+        <v>12893</v>
       </c>
       <c r="D297" t="n">
         <v>1973</v>
       </c>
       <c r="E297" t="n">
-        <v>74449610</v>
+        <v>74453702</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -15649,13 +15649,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>9032</v>
+        <v>9033</v>
       </c>
       <c r="D299" t="n">
         <v>1438</v>
       </c>
       <c r="E299" t="n">
-        <v>50063935</v>
+        <v>50072268</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>15276</v>
+        <v>15277</v>
       </c>
       <c r="D302" t="n">
         <v>3339</v>
       </c>
       <c r="E302" t="n">
-        <v>28784971</v>
+        <v>28787352</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -18097,13 +18097,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14620</v>
+        <v>14621</v>
       </c>
       <c r="D347" t="n">
         <v>2663</v>
       </c>
       <c r="E347" t="n">
-        <v>85179235</v>
+        <v>85181223</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -22432,13 +22432,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>43535</v>
+        <v>43536</v>
       </c>
       <c r="D432" t="n">
-        <v>9207</v>
+        <v>9208</v>
       </c>
       <c r="E432" t="n">
-        <v>76686195</v>
+        <v>76686270</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
@@ -23809,13 +23809,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>88339</v>
+        <v>88343</v>
       </c>
       <c r="D459" t="n">
         <v>16394</v>
       </c>
       <c r="E459" t="n">
-        <v>151567802</v>
+        <v>151573170</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -24268,13 +24268,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>164679</v>
+        <v>164680</v>
       </c>
       <c r="D468" t="n">
         <v>27310</v>
       </c>
       <c r="E468" t="n">
-        <v>287071522</v>
+        <v>287073022</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416773</v>
+        <v>416779</v>
       </c>
       <c r="D477" t="n">
-        <v>70500</v>
+        <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725320314</v>
+        <v>725332455</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292139</v>
+        <v>292150</v>
       </c>
       <c r="D484" t="n">
         <v>42567</v>
       </c>
       <c r="E484" t="n">
-        <v>1771562858</v>
+        <v>1771685465</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230731</v>
+        <v>230734</v>
       </c>
       <c r="D487" t="n">
         <v>33850</v>
       </c>
       <c r="E487" t="n">
-        <v>1822246752</v>
+        <v>1822254057</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26614,13 +26614,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>142807</v>
+        <v>142808</v>
       </c>
       <c r="D514" t="n">
         <v>23612</v>
       </c>
       <c r="E514" t="n">
-        <v>244580153</v>
+        <v>244585598</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56106</v>
+        <v>56110</v>
       </c>
       <c r="D520" t="n">
         <v>8770</v>
       </c>
       <c r="E520" t="n">
-        <v>254037273</v>
+        <v>254093530</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27634,13 +27634,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>44040</v>
+        <v>44042</v>
       </c>
       <c r="D534" t="n">
         <v>8566</v>
       </c>
       <c r="E534" t="n">
-        <v>220132787</v>
+        <v>220226017</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -34366,13 +34366,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>73207</v>
+        <v>73208</v>
       </c>
       <c r="D666" t="n">
         <v>14361</v>
       </c>
       <c r="E666" t="n">
-        <v>367202185</v>
+        <v>367211591</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -34519,13 +34519,13 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>39558</v>
+        <v>39559</v>
       </c>
       <c r="D669" t="n">
         <v>7193</v>
       </c>
       <c r="E669" t="n">
-        <v>209612091</v>
+        <v>209622091</v>
       </c>
       <c r="F669" t="inlineStr">
         <is>
@@ -40843,13 +40843,13 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>63454</v>
+        <v>63457</v>
       </c>
       <c r="D793" t="n">
         <v>11594</v>
       </c>
       <c r="E793" t="n">
-        <v>307291486</v>
+        <v>307308190</v>
       </c>
       <c r="F793" t="inlineStr">
         <is>
@@ -47218,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>79088</v>
+        <v>79089</v>
       </c>
       <c r="D918" t="n">
         <v>13383</v>
       </c>
       <c r="E918" t="n">
-        <v>391827725</v>
+        <v>392027725</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
@@ -48646,13 +48646,13 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>29831</v>
+        <v>29832</v>
       </c>
       <c r="D946" t="n">
         <v>5384</v>
       </c>
       <c r="E946" t="n">
-        <v>141956650</v>
+        <v>141958150</v>
       </c>
       <c r="F946" t="inlineStr">
         <is>
